--- a/src/main/resources/Profile.xlsx
+++ b/src/main/resources/Profile.xlsx
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8020" uniqueCount="4480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8024" uniqueCount="4480">
   <si>
     <t>Type Name</t>
   </si>
@@ -42734,8 +42734,8 @@
   <dimension ref="A1:P1349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A930" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F945" sqref="F945"/>
+      <pane ySplit="1" topLeftCell="A938" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F949" sqref="F949:J949"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57689,6 +57689,13 @@
       <c r="D945" s="8" t="s">
         <v>2092</v>
       </c>
+      <c r="F945" s="3"/>
+      <c r="G945"/>
+      <c r="H945"/>
+      <c r="I945" t="s">
+        <v>3721</v>
+      </c>
+      <c r="J945"/>
       <c r="P945" s="8">
         <v>1</v>
       </c>
@@ -57703,6 +57710,13 @@
       <c r="D946" s="8" t="s">
         <v>2092</v>
       </c>
+      <c r="F946" s="3"/>
+      <c r="G946"/>
+      <c r="H946"/>
+      <c r="I946" t="s">
+        <v>3721</v>
+      </c>
+      <c r="J946"/>
       <c r="P946" s="8">
         <v>1</v>
       </c>
@@ -57744,6 +57758,21 @@
       </c>
       <c r="D949" s="8" t="s">
         <v>47</v>
+      </c>
+      <c r="F949" s="3" t="s">
+        <v>3924</v>
+      </c>
+      <c r="G949">
+        <v>5</v>
+      </c>
+      <c r="H949">
+        <v>500</v>
+      </c>
+      <c r="I949" t="s">
+        <v>3572</v>
+      </c>
+      <c r="J949">
+        <v>16</v>
       </c>
       <c r="P949" s="8">
         <v>1</v>

--- a/src/main/resources/Profile.xlsx
+++ b/src/main/resources/Profile.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Additional Types" sheetId="6" r:id="rId3"/>
     <sheet name="Additional Messages" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8050" uniqueCount="4481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8060" uniqueCount="4485">
   <si>
     <t>Type Name</t>
   </si>
@@ -13801,6 +13801,18 @@
   </si>
   <si>
     <t>Edge810, Edge830</t>
+  </si>
+  <si>
+    <t>altitude_correction</t>
+  </si>
+  <si>
+    <t>corrected_altitude</t>
+  </si>
+  <si>
+    <t>Correction c. Correction in m = (c-c0)/12</t>
+  </si>
+  <si>
+    <t>On Edge830 is is the barometric altitude with correction based on GPS. This value is shown on display; first measurement: corrected_altitude=altitude</t>
   </si>
 </sst>
 </file>
@@ -13854,7 +13866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -13876,6 +13888,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -42868,7 +42883,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="D583" sqref="D583:J583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42889,7 +42904,7 @@
     <col min="17" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3464</v>
       </c>
@@ -64154,10 +64169,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64167,13 +64182,14 @@
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" customWidth="1"/>
     <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="14" max="14" width="45.7109375" style="3" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3464</v>
       </c>
@@ -64259,7 +64275,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="9" t="s">
         <v>4479</v>
       </c>
       <c r="O3" s="8" t="s">
@@ -64287,7 +64303,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8">
         <v>1</v>
@@ -64313,7 +64329,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8">
         <v>7</v>
@@ -64338,7 +64354,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8">
         <v>1</v>
@@ -64363,7 +64379,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8">
         <v>1</v>
@@ -64389,7 +64405,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8">
         <v>1</v>
@@ -64415,7 +64431,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8">
         <v>1</v>
@@ -64451,7 +64467,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="N10" s="9"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8">
         <v>1</v>
@@ -64477,7 +64493,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
+      <c r="N11" s="9"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8">
         <v>1</v>
@@ -64503,10 +64519,62 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8">
         <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4482</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>500</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3572</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4481</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2091</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>4483</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>4480</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Profile.xlsx
+++ b/src/main/resources/Profile.xlsx
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8060" uniqueCount="4485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8077" uniqueCount="4490">
   <si>
     <t>Type Name</t>
   </si>
@@ -13813,6 +13813,21 @@
   </si>
   <si>
     <t>On Edge830 is is the barometric altitude with correction based on GPS. This value is shown on display; first measurement: corrected_altitude=altitude</t>
+  </si>
+  <si>
+    <t>voltage</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>Positive is charging, negative is discharging</t>
   </si>
 </sst>
 </file>
@@ -42882,8 +42897,8 @@
   <dimension ref="A1:P1338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D583" sqref="D583:J583"/>
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C294" sqref="C294:D294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64104,16 +64119,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64162,6 +64178,14 @@
       </c>
       <c r="E3" s="3"/>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D4">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64169,10 +64193,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64305,9 +64332,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="9"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="8">
-        <v>1</v>
-      </c>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -64331,9 +64356,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="9"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="8">
-        <v>7</v>
-      </c>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
@@ -64356,9 +64379,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="9"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="8">
-        <v>1</v>
-      </c>
+      <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -64381,9 +64402,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="9"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="8">
-        <v>1</v>
-      </c>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -64407,9 +64426,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="8">
-        <v>1</v>
-      </c>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -64433,9 +64450,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="8">
-        <v>1</v>
-      </c>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -64469,9 +64484,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="9"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="8">
-        <v>1</v>
-      </c>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -64495,9 +64508,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="9"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="8">
-        <v>1</v>
-      </c>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -64521,9 +64532,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="9"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="8">
-        <v>7</v>
-      </c>
+      <c r="P12" s="8"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -64577,8 +64586,100 @@
         <v>4480</v>
       </c>
     </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>253</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4485</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4486</v>
+      </c>
+      <c r="P20">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4487</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4489</v>
+      </c>
+      <c r="P21">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>711</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3605</v>
+      </c>
+      <c r="P22">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2090</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4488</v>
+      </c>
+      <c r="P23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/Profile.xlsx
+++ b/src/main/resources/Profile.xlsx
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8077" uniqueCount="4490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8081" uniqueCount="4491">
   <si>
     <t>Type Name</t>
   </si>
@@ -13828,6 +13828,9 @@
   </si>
   <si>
     <t>Positive is charging, negative is discharging</t>
+  </si>
+  <si>
+    <t>The computer log mode, like 'OFF ROAD', 'ROAD', etc</t>
   </si>
 </sst>
 </file>
@@ -42919,7 +42922,7 @@
     <col min="17" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3464</v>
       </c>
@@ -64193,13 +64196,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64216,7 +64219,7 @@
     <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3464</v>
       </c>
@@ -64674,8 +64677,23 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>110</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>3656</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>4490</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/Profile.xlsx
+++ b/src/main/resources/Profile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10940" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Types" sheetId="2" r:id="rId1"/>
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9145" uniqueCount="4985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9149" uniqueCount="4987">
   <si>
     <t>Type Name</t>
   </si>
@@ -15249,6 +15249,12 @@
   </si>
   <si>
     <t>stamina</t>
+  </si>
+  <si>
+    <t>airoha</t>
+  </si>
+  <si>
+    <t>sony</t>
   </si>
 </sst>
 </file>
@@ -15635,8 +15641,8 @@
   <dimension ref="A1:E3752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A1316" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A1089" sqref="A1089:B1089"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -71445,10 +71451,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -71505,6 +71511,30 @@
         <v>104</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>4986</v>
+      </c>
+      <c r="D7">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>4985</v>
+      </c>
+      <c r="D8">
+        <v>3886</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -71514,7 +71544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/src/main/resources/Profile.xlsx
+++ b/src/main/resources/Profile.xlsx
@@ -71454,7 +71454,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -71532,7 +71532,7 @@
         <v>4985</v>
       </c>
       <c r="D8">
-        <v>3886</v>
+        <v>3866</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Profile.xlsx
+++ b/src/main/resources/Profile.xlsx
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9624" uniqueCount="5166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9625" uniqueCount="5167">
   <si>
     <t>Type Name</t>
   </si>
@@ -15792,6 +15792,9 @@
   </si>
   <si>
     <t>gpsmap67</t>
+  </si>
+  <si>
+    <t>gpsmap66sr</t>
   </si>
 </sst>
 </file>
@@ -74479,10 +74482,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -74565,9 +74568,17 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
+        <v>5166</v>
+      </c>
+      <c r="D9">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>5165</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>4336</v>
       </c>
     </row>
